--- a/domaingroups/Rossmann-related/e1fmcA1_results.xlsx
+++ b/domaingroups/Rossmann-related/e1fmcA1_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bounedutr-my.sharepoint.com/personal/yigit_kutlu_boun_edu_tr/Documents/Themes&amp;Dynamics/New Domains/Calculations/Rossmann-related-1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bounedutr-my.sharepoint.com/personal/yigit_kutlu_bounedutr_onmicrosoft_com/Documents/Themes&amp;Dynamics/WebSiteFiles/Rossmann-related/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_F25DC773A252ABDACC10481D999E7FD05ADE58E0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DFD26A4-A3CF-4C0E-8FAD-CD131AF89B8E}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_F25DC773A252ABDACC10481D999E7FD05ADE58E0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A9CB755-1475-47D3-9AA0-E03CF8E12622}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-22530" yWindow="5565" windowWidth="23040" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,6 @@
     <t>Index</t>
   </si>
   <si>
-    <t>Dynamic Domains</t>
-  </si>
-  <si>
     <t>Theme Combinations</t>
   </si>
   <si>
@@ -258,6 +255,9 @@
   </si>
   <si>
     <t>Mode-7</t>
+  </si>
+  <si>
+    <t>Dynamic Elements</t>
   </si>
 </sst>
 </file>
@@ -629,12 +629,12 @@
   <dimension ref="A1:AY36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T34" sqref="T34:Z34"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -646,16 +646,16 @@
         <v>2</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="I1" s="6"/>
       <c r="P1" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
       <c r="Y1" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z1" s="8"/>
       <c r="AA1" s="8"/>
@@ -665,7 +665,7 @@
       <c r="AE1" s="8"/>
       <c r="AF1" s="8"/>
       <c r="AG1" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH1" s="8"/>
       <c r="AI1" s="8"/>
@@ -675,12 +675,12 @@
       <c r="AM1" s="8"/>
       <c r="AN1" s="8"/>
       <c r="AO1" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -692,25 +692,25 @@
         <v>1</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>14</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -719,69 +719,69 @@
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
       <c r="T2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="V2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="W2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="X2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="Y2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Z2" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="AA2" s="8"/>
       <c r="AB2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AD2" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AE2" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AF2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="AF2" s="8" t="s">
+      <c r="AG2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AH2" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="AH2" s="8" t="s">
-        <v>66</v>
       </c>
       <c r="AI2" s="8"/>
       <c r="AJ2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="AK2" s="8" t="s">
+      <c r="AL2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AL2" s="8" t="s">
+      <c r="AM2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AN2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AN2" s="8" t="s">
+      <c r="AO2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AO2" s="8" t="s">
+      <c r="AP2" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="AP2" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="AQ2" s="8"/>
       <c r="AR2" s="8"/>
@@ -793,9 +793,9 @@
       <c r="AX2" s="8"/>
       <c r="AY2" s="8"/>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>9</v>
@@ -906,9 +906,9 @@
         <v>51.91</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>11</v>
@@ -1019,9 +1019,9 @@
         <v>61.16</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>14</v>
@@ -1132,9 +1132,9 @@
         <v>33.94</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>56</v>
@@ -1245,9 +1245,9 @@
         <v>40.369999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>57</v>
@@ -1358,9 +1358,9 @@
         <v>51.06</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>59</v>
@@ -1471,9 +1471,9 @@
         <v>26.03</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>65</v>
@@ -1584,9 +1584,9 @@
         <v>40.68</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>73</v>
@@ -1697,9 +1697,9 @@
         <v>50.13</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>103</v>
@@ -1789,9 +1789,9 @@
         <v>42.32</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>109</v>
@@ -1881,9 +1881,9 @@
         <v>50.36</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>110</v>
@@ -1973,9 +1973,9 @@
         <v>26.52</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>121</v>
@@ -2065,9 +2065,9 @@
         <v>49.99</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>129</v>
@@ -2157,9 +2157,9 @@
         <v>59.28</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>135</v>
@@ -2249,9 +2249,9 @@
         <v>32.01</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>155</v>
@@ -2341,9 +2341,9 @@
         <v>50.65</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>155</v>
@@ -2433,9 +2433,9 @@
         <v>59.92</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19">
         <v>169</v>
@@ -2525,9 +2525,9 @@
         <v>32.67</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20">
         <v>181</v>
@@ -2617,9 +2617,9 @@
         <v>39.380000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>194</v>
@@ -2709,9 +2709,9 @@
         <v>48.75</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22">
         <v>204</v>
@@ -2801,9 +2801,9 @@
         <v>41.23</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N23">
         <v>4</v>
@@ -2884,9 +2884,9 @@
         <v>49.29</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24">
         <v>6</v>
@@ -2973,9 +2973,9 @@
         <v>25.19</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25">
         <v>8</v>
@@ -3062,9 +3062,9 @@
         <v>48.63</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26">
         <v>85</v>
@@ -3151,9 +3151,9 @@
         <v>57.96</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27">
         <v>159</v>
@@ -3240,9 +3240,9 @@
         <v>30.63</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28">
         <v>214</v>
@@ -3251,12 +3251,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T29">
         <v>1.6776</v>
@@ -3322,9 +3322,9 @@
         <v>61.16</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30">
         <v>8</v>
@@ -3333,9 +3333,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31">
         <v>8</v>
@@ -3344,12 +3344,12 @@
         <v>42</v>
       </c>
       <c r="R31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32">
         <v>9</v>
@@ -3358,7 +3358,7 @@
         <v>43</v>
       </c>
       <c r="R32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T32">
         <v>1.1818</v>
@@ -3382,9 +3382,9 @@
         <v>0.42520000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33">
         <v>67</v>
@@ -3393,7 +3393,7 @@
         <v>119</v>
       </c>
       <c r="R33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T33">
         <v>0.27039999999999997</v>
@@ -3417,9 +3417,9 @@
         <v>0.17949999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34">
         <v>182</v>
@@ -3428,7 +3428,7 @@
         <v>249</v>
       </c>
       <c r="R34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T34">
         <v>3.3500000000000002E-2</v>
@@ -3452,17 +3452,17 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="R35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T35">
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="R36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T36">
         <v>768</v>
